--- a/biology/Médecine/Bartolomeo_da_Varignana/Bartolomeo_da_Varignana.xlsx
+++ b/biology/Médecine/Bartolomeo_da_Varignana/Bartolomeo_da_Varignana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bartolomeo da Varignana est un médecin italien, né à Varignana, près de Bologne, et mort après 1321[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bartolomeo da Varignana est un médecin italien, né à Varignana, près de Bologne, et mort après 1321.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bartolomeo da Varignana conduisit plusieurs autopsies dans les premières années du XIVe siècle[2] après s'être formé à la médecine à l'université de Bologne[2], où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui[3].
-Après la création de l'université de Pérouse en 1308, il y enseigna la médecine[4] avec Tommaso del Garbo et Gentile da Foligno.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bartolomeo da Varignana conduisit plusieurs autopsies dans les premières années du XIVe siècle après s'être formé à la médecine à l'université de Bologne, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui.
+Après la création de l'université de Pérouse en 1308, il y enseigna la médecine avec Tommaso del Garbo et Gentile da Foligno.
 </t>
         </is>
       </c>
